--- a/team_specific_matrix/Tennessee_B.xlsx
+++ b/team_specific_matrix/Tennessee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1963746223564955</v>
+        <v>0.1968599033816425</v>
       </c>
       <c r="C2">
-        <v>0.5589123867069486</v>
+        <v>0.5628019323671497</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01812688821752266</v>
+        <v>0.01570048309178744</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1435045317220544</v>
+        <v>0.1461352657004831</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08308157099697885</v>
+        <v>0.0785024154589372</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007853403141361256</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="C3">
-        <v>0.03926701570680628</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01570680628272251</v>
+        <v>0.01673640167364017</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7696335078534031</v>
+        <v>0.7594142259414226</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1675392670157068</v>
+        <v>0.1820083682008368</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6049382716049383</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3580246913580247</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0670995670995671</v>
+        <v>0.07023411371237458</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01082251082251082</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="E6">
-        <v>0.002164502164502165</v>
+        <v>0.001672240802675585</v>
       </c>
       <c r="F6">
-        <v>0.08008658008658008</v>
+        <v>0.07859531772575251</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2619047619047619</v>
+        <v>0.2508361204013378</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02164502164502164</v>
+        <v>0.02006688963210702</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1277056277056277</v>
+        <v>0.1220735785953177</v>
       </c>
       <c r="R6">
-        <v>0.0735930735930736</v>
+        <v>0.08193979933110368</v>
       </c>
       <c r="S6">
-        <v>0.354978354978355</v>
+        <v>0.3612040133779264</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1002132196162047</v>
+        <v>0.1038062283737024</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01918976545842218</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06183368869936034</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1236673773987207</v>
+        <v>0.1262975778546713</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02345415778251599</v>
+        <v>0.02249134948096886</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1727078891257996</v>
+        <v>0.171280276816609</v>
       </c>
       <c r="R7">
-        <v>0.08955223880597014</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S7">
-        <v>0.4093816631130064</v>
+        <v>0.4013840830449827</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1021825396825397</v>
+        <v>0.1003110419906687</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01884920634920635</v>
+        <v>0.02021772939346812</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05257936507936508</v>
+        <v>0.0583203732503888</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1121031746031746</v>
+        <v>0.1088646967340591</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02777777777777778</v>
+        <v>0.02721617418351478</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1617063492063492</v>
+        <v>0.1594090202177294</v>
       </c>
       <c r="R8">
-        <v>0.09523809523809523</v>
+        <v>0.08942457231726283</v>
       </c>
       <c r="S8">
-        <v>0.429563492063492</v>
+        <v>0.4362363919129083</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0995260663507109</v>
+        <v>0.09386973180076628</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01184834123222749</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.001915708812260536</v>
       </c>
       <c r="F9">
-        <v>0.05687203791469194</v>
+        <v>0.06704980842911877</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1255924170616114</v>
+        <v>0.1360153256704981</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01895734597156398</v>
+        <v>0.0210727969348659</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1398104265402844</v>
+        <v>0.1360153256704981</v>
       </c>
       <c r="R9">
-        <v>0.08530805687203792</v>
+        <v>0.09003831417624521</v>
       </c>
       <c r="S9">
-        <v>0.462085308056872</v>
+        <v>0.4425287356321839</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1073729420186113</v>
+        <v>0.107492795389049</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0164638511095204</v>
+        <v>0.01642651296829971</v>
       </c>
       <c r="E10">
-        <v>0.0003579098067287044</v>
+        <v>0.0005763688760806917</v>
       </c>
       <c r="F10">
-        <v>0.06692913385826772</v>
+        <v>0.06685878962536022</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206156048675734</v>
+        <v>0.1216138328530259</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0161059413027917</v>
+        <v>0.01613832853025936</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2186828919112384</v>
+        <v>0.2175792507204611</v>
       </c>
       <c r="R10">
-        <v>0.07587687902648532</v>
+        <v>0.07694524495677234</v>
       </c>
       <c r="S10">
-        <v>0.3775948460987831</v>
+        <v>0.3763688760806916</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1404833836858006</v>
+        <v>0.1498172959805116</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07099697885196375</v>
+        <v>0.06333739342265529</v>
       </c>
       <c r="K11">
-        <v>0.1873111782477341</v>
+        <v>0.1961023142509135</v>
       </c>
       <c r="L11">
-        <v>0.5845921450151057</v>
+        <v>0.5749086479902558</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01661631419939577</v>
+        <v>0.01583434835566382</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1753086419753087</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="K12">
-        <v>0.007407407407407408</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="L12">
-        <v>0.03703703703703703</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03950617283950617</v>
+        <v>0.03252032520325204</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7168141592920354</v>
+        <v>0.7153284671532847</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2654867256637168</v>
+        <v>0.2627737226277372</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.01769911504424779</v>
+        <v>0.0218978102189781</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01224489795918367</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1653061224489796</v>
+        <v>0.1644295302013423</v>
       </c>
       <c r="I15">
-        <v>0.04897959183673469</v>
+        <v>0.04865771812080537</v>
       </c>
       <c r="J15">
-        <v>0.3653061224489796</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="K15">
-        <v>0.05510204081632653</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01428571428571429</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="N15">
-        <v>0.002040816326530612</v>
+        <v>0.001677852348993289</v>
       </c>
       <c r="O15">
-        <v>0.06734693877551021</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2693877551020408</v>
+        <v>0.2818791946308725</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01408450704225352</v>
+        <v>0.01518026565464896</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1877934272300469</v>
+        <v>0.1840607210626186</v>
       </c>
       <c r="I16">
-        <v>0.07981220657276995</v>
+        <v>0.07969639468690702</v>
       </c>
       <c r="J16">
-        <v>0.4178403755868544</v>
+        <v>0.4098671726755218</v>
       </c>
       <c r="K16">
-        <v>0.1126760563380282</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0187793427230047</v>
+        <v>0.01707779886148008</v>
       </c>
       <c r="N16">
-        <v>0.002347417840375587</v>
+        <v>0.00189753320683112</v>
       </c>
       <c r="O16">
-        <v>0.04460093896713615</v>
+        <v>0.04174573055028463</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1220657276995305</v>
+        <v>0.1214421252371917</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01552795031055901</v>
+        <v>0.01588628762541806</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1832298136645963</v>
+        <v>0.1831103678929766</v>
       </c>
       <c r="I17">
-        <v>0.09316770186335403</v>
+        <v>0.09113712374581939</v>
       </c>
       <c r="J17">
-        <v>0.4233954451345756</v>
+        <v>0.4255852842809364</v>
       </c>
       <c r="K17">
-        <v>0.10351966873706</v>
+        <v>0.09949832775919733</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02173913043478261</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="N17">
-        <v>0.003105590062111801</v>
+        <v>0.002508361204013378</v>
       </c>
       <c r="O17">
-        <v>0.06211180124223602</v>
+        <v>0.06103678929765886</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09420289855072464</v>
+        <v>0.09448160535117058</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01927710843373494</v>
+        <v>0.02103250478011472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1590361445783132</v>
+        <v>0.1759082217973231</v>
       </c>
       <c r="I18">
-        <v>0.08674698795180723</v>
+        <v>0.08795411089866156</v>
       </c>
       <c r="J18">
-        <v>0.4433734939759036</v>
+        <v>0.4225621414913958</v>
       </c>
       <c r="K18">
-        <v>0.1156626506024096</v>
+        <v>0.1108986615678776</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01927710843373494</v>
+        <v>0.01529636711281071</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06746987951807229</v>
+        <v>0.06500956022944551</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0891566265060241</v>
+        <v>0.1013384321223709</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01544540229885057</v>
+        <v>0.01658564483843294</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2169540229885057</v>
+        <v>0.2230483271375465</v>
       </c>
       <c r="I19">
-        <v>0.08728448275862069</v>
+        <v>0.08607377752359165</v>
       </c>
       <c r="J19">
-        <v>0.3710488505747127</v>
+        <v>0.372319130683443</v>
       </c>
       <c r="K19">
-        <v>0.1117097701149425</v>
+        <v>0.1078066914498141</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02514367816091954</v>
+        <v>0.02287675150128682</v>
       </c>
       <c r="N19">
-        <v>0.001077586206896552</v>
+        <v>0.001143837575064341</v>
       </c>
       <c r="O19">
-        <v>0.06645114942528736</v>
+        <v>0.06348298541607092</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1048850574712644</v>
+        <v>0.1066628538747498</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tennessee_B.xlsx
+++ b/team_specific_matrix/Tennessee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1968599033816425</v>
+        <v>0.1901181525241676</v>
       </c>
       <c r="C2">
-        <v>0.5628019323671497</v>
+        <v>0.5757250268528464</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01570048309178744</v>
+        <v>0.01396348012889366</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1461352657004831</v>
+        <v>0.1417830290010741</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0785024154589372</v>
+        <v>0.07841031149301826</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008368200836820083</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C3">
-        <v>0.03347280334728033</v>
+        <v>0.03442028985507246</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01673640167364017</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7594142259414226</v>
+        <v>0.7644927536231884</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1820083682008368</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0392156862745098</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5882352941176471</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3725490196078431</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07023411371237458</v>
+        <v>0.06865671641791045</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01337792642140468</v>
+        <v>0.01194029850746269</v>
       </c>
       <c r="E6">
-        <v>0.001672240802675585</v>
+        <v>0.001492537313432836</v>
       </c>
       <c r="F6">
-        <v>0.07859531772575251</v>
+        <v>0.07611940298507462</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2508361204013378</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02006688963210702</v>
+        <v>0.01940298507462686</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1220735785953177</v>
+        <v>0.1208955223880597</v>
       </c>
       <c r="R6">
-        <v>0.08193979933110368</v>
+        <v>0.08208955223880597</v>
       </c>
       <c r="S6">
-        <v>0.3612040133779264</v>
+        <v>0.3656716417910448</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1038062283737024</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01730103806228374</v>
+        <v>0.01536098310291859</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06920415224913495</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1262975778546713</v>
+        <v>0.130568356374808</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02249134948096886</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.171280276816609</v>
+        <v>0.17357910906298</v>
       </c>
       <c r="R7">
-        <v>0.08823529411764706</v>
+        <v>0.08448540706605223</v>
       </c>
       <c r="S7">
-        <v>0.4013840830449827</v>
+        <v>0.3963133640552995</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1003110419906687</v>
+        <v>0.09795630725863284</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02021772939346812</v>
+        <v>0.0204369274136716</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0583203732503888</v>
+        <v>0.05637773079633545</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1088646967340591</v>
+        <v>0.1106412966878083</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02721617418351478</v>
+        <v>0.02677942212825934</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1594090202177294</v>
+        <v>0.1592670894996476</v>
       </c>
       <c r="R8">
-        <v>0.08942457231726283</v>
+        <v>0.08668076109936575</v>
       </c>
       <c r="S8">
-        <v>0.4362363919129083</v>
+        <v>0.4418604651162791</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09386973180076628</v>
+        <v>0.09747899159663866</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01149425287356322</v>
+        <v>0.01008403361344538</v>
       </c>
       <c r="E9">
-        <v>0.001915708812260536</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="F9">
-        <v>0.06704980842911877</v>
+        <v>0.06218487394957983</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1360153256704981</v>
+        <v>0.1378151260504202</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0210727969348659</v>
+        <v>0.01848739495798319</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1360153256704981</v>
+        <v>0.134453781512605</v>
       </c>
       <c r="R9">
-        <v>0.09003831417624521</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="S9">
-        <v>0.4425287356321839</v>
+        <v>0.4436974789915966</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.107492795389049</v>
+        <v>0.108667859882383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01642651296829971</v>
+        <v>0.01789823574533368</v>
       </c>
       <c r="E10">
-        <v>0.0005763688760806917</v>
+        <v>0.0005113781641523907</v>
       </c>
       <c r="F10">
-        <v>0.06685878962536022</v>
+        <v>0.06775760675019177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1216138328530259</v>
+        <v>0.1194068013295832</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01613832853025936</v>
+        <v>0.01559703400664792</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2175792507204611</v>
+        <v>0.2155458961902327</v>
       </c>
       <c r="R10">
-        <v>0.07694524495677234</v>
+        <v>0.07951930452569675</v>
       </c>
       <c r="S10">
-        <v>0.3763688760806916</v>
+        <v>0.3750958834057786</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1498172959805116</v>
+        <v>0.1487778958554729</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06333739342265529</v>
+        <v>0.06588735387885228</v>
       </c>
       <c r="K11">
-        <v>0.1961023142509135</v>
+        <v>0.1976620616365569</v>
       </c>
       <c r="L11">
-        <v>0.5749086479902558</v>
+        <v>0.5696068012752391</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01583434835566382</v>
+        <v>0.01806588735387885</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7535971223021583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1788617886178862</v>
+        <v>0.1762589928057554</v>
       </c>
       <c r="K12">
-        <v>0.006097560975609756</v>
+        <v>0.00539568345323741</v>
       </c>
       <c r="L12">
-        <v>0.03252032520325204</v>
+        <v>0.03057553956834532</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03252032520325204</v>
+        <v>0.0341726618705036</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7153284671532847</v>
+        <v>0.7181208053691275</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2627737226277372</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0218978102189781</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01006711409395973</v>
+        <v>0.01059001512859304</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1644295302013423</v>
+        <v>0.1603630862329803</v>
       </c>
       <c r="I15">
-        <v>0.04865771812080537</v>
+        <v>0.0529500756429652</v>
       </c>
       <c r="J15">
-        <v>0.3557046979865772</v>
+        <v>0.3615733736762481</v>
       </c>
       <c r="K15">
-        <v>0.05704697986577181</v>
+        <v>0.05900151285930409</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01342281879194631</v>
+        <v>0.01210287443267776</v>
       </c>
       <c r="N15">
-        <v>0.001677852348993289</v>
+        <v>0.00151285930408472</v>
       </c>
       <c r="O15">
-        <v>0.06711409395973154</v>
+        <v>0.06656580937972768</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2818791946308725</v>
+        <v>0.2753403933434191</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01518026565464896</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1840607210626186</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="I16">
-        <v>0.07969639468690702</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="J16">
-        <v>0.4098671726755218</v>
+        <v>0.4042904290429043</v>
       </c>
       <c r="K16">
-        <v>0.1290322580645161</v>
+        <v>0.1270627062706271</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01707779886148008</v>
+        <v>0.0165016501650165</v>
       </c>
       <c r="N16">
-        <v>0.00189753320683112</v>
+        <v>0.00165016501650165</v>
       </c>
       <c r="O16">
-        <v>0.04174573055028463</v>
+        <v>0.0396039603960396</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1214421252371917</v>
+        <v>0.1303630363036304</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01588628762541806</v>
+        <v>0.01800450112528132</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1831103678929766</v>
+        <v>0.1747936984246062</v>
       </c>
       <c r="I17">
-        <v>0.09113712374581939</v>
+        <v>0.08927231807951988</v>
       </c>
       <c r="J17">
-        <v>0.4255852842809364</v>
+        <v>0.4336084021005251</v>
       </c>
       <c r="K17">
-        <v>0.09949832775919733</v>
+        <v>0.1042760690172543</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02675585284280936</v>
+        <v>0.02475618904726181</v>
       </c>
       <c r="N17">
-        <v>0.002508361204013378</v>
+        <v>0.002250562640660165</v>
       </c>
       <c r="O17">
-        <v>0.06103678929765886</v>
+        <v>0.06001500375093773</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09448160535117058</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02103250478011472</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1759082217973231</v>
+        <v>0.1878172588832487</v>
       </c>
       <c r="I18">
-        <v>0.08795411089866156</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="J18">
-        <v>0.4225621414913958</v>
+        <v>0.4213197969543147</v>
       </c>
       <c r="K18">
-        <v>0.1108986615678776</v>
+        <v>0.1099830795262267</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01529636711281071</v>
+        <v>0.01353637901861252</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06500956022944551</v>
+        <v>0.05922165820642978</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1013384321223709</v>
+        <v>0.1015228426395939</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01658564483843294</v>
+        <v>0.01709183673469388</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2230483271375465</v>
+        <v>0.2188775510204082</v>
       </c>
       <c r="I19">
-        <v>0.08607377752359165</v>
+        <v>0.08801020408163265</v>
       </c>
       <c r="J19">
-        <v>0.372319130683443</v>
+        <v>0.3737244897959184</v>
       </c>
       <c r="K19">
-        <v>0.1078066914498141</v>
+        <v>0.1102040816326531</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02287675150128682</v>
+        <v>0.02295918367346939</v>
       </c>
       <c r="N19">
-        <v>0.001143837575064341</v>
+        <v>0.001020408163265306</v>
       </c>
       <c r="O19">
-        <v>0.06348298541607092</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1066628538747498</v>
+        <v>0.1038265306122449</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Tennessee_B.xlsx
+++ b/team_specific_matrix/Tennessee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1901181525241676</v>
+        <v>0.1908315565031983</v>
       </c>
       <c r="C2">
-        <v>0.5757250268528464</v>
+        <v>0.5746268656716418</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01396348012889366</v>
+        <v>0.0138592750533049</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1417830290010741</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07841031149301826</v>
+        <v>0.07782515991471216</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007246376811594203</v>
+        <v>0.007207207207207207</v>
       </c>
       <c r="C3">
-        <v>0.03442028985507246</v>
+        <v>0.03423423423423423</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01449275362318841</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7644927536231884</v>
+        <v>0.7603603603603604</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793478260869565</v>
+        <v>0.181981981981982</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06865671641791045</v>
+        <v>0.06774668630338733</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01194029850746269</v>
+        <v>0.0117820324005891</v>
       </c>
       <c r="E6">
-        <v>0.001492537313432836</v>
+        <v>0.001472754050073638</v>
       </c>
       <c r="F6">
-        <v>0.07611940298507462</v>
+        <v>0.07658321060382917</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2537313432835821</v>
+        <v>0.251840942562592</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01940298507462686</v>
+        <v>0.01914580265095729</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1208955223880597</v>
+        <v>0.1222385861561119</v>
       </c>
       <c r="R6">
-        <v>0.08208955223880597</v>
+        <v>0.08100147275405008</v>
       </c>
       <c r="S6">
-        <v>0.3656716417910448</v>
+        <v>0.3681885125184094</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1075268817204301</v>
+        <v>0.1077389984825493</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01536098310291859</v>
+        <v>0.01669195751138088</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06451612903225806</v>
+        <v>0.0637329286798179</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.130568356374808</v>
+        <v>0.1320182094081942</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02764976958525346</v>
+        <v>0.02731411229135053</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.17357910906298</v>
+        <v>0.1714719271623672</v>
       </c>
       <c r="R7">
-        <v>0.08448540706605223</v>
+        <v>0.08345978755690441</v>
       </c>
       <c r="S7">
-        <v>0.3963133640552995</v>
+        <v>0.3975720789074355</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09795630725863284</v>
+        <v>0.09783368273934312</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0204369274136716</v>
+        <v>0.02026554856743536</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05637773079633545</v>
+        <v>0.05590496156533892</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1106412966878083</v>
+        <v>0.1118099231306778</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02677942212825934</v>
+        <v>0.02725366876310273</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1592670894996476</v>
+        <v>0.1586303284416492</v>
       </c>
       <c r="R8">
-        <v>0.08668076109936575</v>
+        <v>0.08735150244584207</v>
       </c>
       <c r="S8">
-        <v>0.4418604651162791</v>
+        <v>0.4409503843466108</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09747899159663866</v>
+        <v>0.09650582362728785</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01008403361344538</v>
+        <v>0.009983361064891847</v>
       </c>
       <c r="E9">
-        <v>0.001680672268907563</v>
+        <v>0.001663893510815308</v>
       </c>
       <c r="F9">
-        <v>0.06218487394957983</v>
+        <v>0.0632279534109817</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1378151260504202</v>
+        <v>0.1381031613976705</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01848739495798319</v>
+        <v>0.01996672212978369</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.134453781512605</v>
+        <v>0.1331114808652246</v>
       </c>
       <c r="R9">
-        <v>0.09411764705882353</v>
+        <v>0.09317803660565724</v>
       </c>
       <c r="S9">
-        <v>0.4436974789915966</v>
+        <v>0.4442595673876872</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.108667859882383</v>
+        <v>0.1079100328531716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01789823574533368</v>
+        <v>0.01769016932019207</v>
       </c>
       <c r="E10">
-        <v>0.0005113781641523907</v>
+        <v>0.0005054334091483447</v>
       </c>
       <c r="F10">
-        <v>0.06775760675019177</v>
+        <v>0.06823351023502654</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1194068013295832</v>
+        <v>0.1190295678544352</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01559703400664792</v>
+        <v>0.01541571897902451</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2155458961902327</v>
+        <v>0.2158200657063432</v>
       </c>
       <c r="R10">
-        <v>0.07951930452569675</v>
+        <v>0.08011119535001264</v>
       </c>
       <c r="S10">
-        <v>0.3750958834057786</v>
+        <v>0.3752843062926459</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1487778958554729</v>
+        <v>0.1472134595162986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06588735387885228</v>
+        <v>0.06624605678233439</v>
       </c>
       <c r="K11">
-        <v>0.1976620616365569</v>
+        <v>0.195583596214511</v>
       </c>
       <c r="L11">
-        <v>0.5696068012752391</v>
+        <v>0.573080967402734</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01806588735387885</v>
+        <v>0.01787592008412198</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7535971223021583</v>
+        <v>0.7544169611307421</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1762589928057554</v>
+        <v>0.176678445229682</v>
       </c>
       <c r="K12">
-        <v>0.00539568345323741</v>
+        <v>0.00530035335689046</v>
       </c>
       <c r="L12">
-        <v>0.03057553956834532</v>
+        <v>0.03003533568904593</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0341726618705036</v>
+        <v>0.03356890459363958</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01059001512859304</v>
+        <v>0.01047904191616766</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1603630862329803</v>
+        <v>0.1616766467065868</v>
       </c>
       <c r="I15">
-        <v>0.0529500756429652</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="J15">
-        <v>0.3615733736762481</v>
+        <v>0.3592814371257485</v>
       </c>
       <c r="K15">
-        <v>0.05900151285930409</v>
+        <v>0.05838323353293413</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01210287443267776</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N15">
-        <v>0.00151285930408472</v>
+        <v>0.002994011976047904</v>
       </c>
       <c r="O15">
-        <v>0.06656580937972768</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2753403933434191</v>
+        <v>0.2754491017964072</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0132013201320132</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1831683168316832</v>
+        <v>0.1825657894736842</v>
       </c>
       <c r="I16">
-        <v>0.08415841584158416</v>
+        <v>0.08388157894736842</v>
       </c>
       <c r="J16">
-        <v>0.4042904290429043</v>
+        <v>0.4029605263157895</v>
       </c>
       <c r="K16">
-        <v>0.1270627062706271</v>
+        <v>0.1282894736842105</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0165016501650165</v>
+        <v>0.01644736842105263</v>
       </c>
       <c r="N16">
-        <v>0.00165016501650165</v>
+        <v>0.001644736842105263</v>
       </c>
       <c r="O16">
-        <v>0.0396039603960396</v>
+        <v>0.04111842105263158</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1303630363036304</v>
+        <v>0.1299342105263158</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01800450112528132</v>
+        <v>0.01783060921248143</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1747936984246062</v>
+        <v>0.175334323922734</v>
       </c>
       <c r="I17">
-        <v>0.08927231807951988</v>
+        <v>0.08989598811292719</v>
       </c>
       <c r="J17">
-        <v>0.4336084021005251</v>
+        <v>0.4331352154531947</v>
       </c>
       <c r="K17">
-        <v>0.1042760690172543</v>
+        <v>0.1040118870728083</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02475618904726181</v>
+        <v>0.02451708766716196</v>
       </c>
       <c r="N17">
-        <v>0.002250562640660165</v>
+        <v>0.002228826151560178</v>
       </c>
       <c r="O17">
-        <v>0.06001500375093773</v>
+        <v>0.05943536404160475</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09302325581395349</v>
+        <v>0.09361069836552749</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02030456852791878</v>
+        <v>0.02003338898163606</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1878172588832487</v>
+        <v>0.1886477462437396</v>
       </c>
       <c r="I18">
-        <v>0.08629441624365482</v>
+        <v>0.08848080133555926</v>
       </c>
       <c r="J18">
-        <v>0.4213197969543147</v>
+        <v>0.4190317195325542</v>
       </c>
       <c r="K18">
-        <v>0.1099830795262267</v>
+        <v>0.1085141903171953</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01353637901861252</v>
+        <v>0.01335559265442404</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05922165820642978</v>
+        <v>0.05843071786310518</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1015228426395939</v>
+        <v>0.1035058430717863</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01709183673469388</v>
+        <v>0.0171414166876733</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2188775510204082</v>
+        <v>0.217544744139148</v>
       </c>
       <c r="I19">
-        <v>0.08801020408163265</v>
+        <v>0.08721956138139653</v>
       </c>
       <c r="J19">
-        <v>0.3737244897959184</v>
+        <v>0.375346609528611</v>
       </c>
       <c r="K19">
-        <v>0.1102040816326531</v>
+        <v>0.1106629694983615</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02295918367346939</v>
+        <v>0.02268716914544996</v>
       </c>
       <c r="N19">
-        <v>0.001020408163265306</v>
+        <v>0.001008318628686665</v>
       </c>
       <c r="O19">
-        <v>0.06428571428571428</v>
+        <v>0.0642803125787749</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1038265306122449</v>
+        <v>0.1041088984118982</v>
       </c>
     </row>
   </sheetData>
